--- a/Project Outputs for VMA_SAUVC26/VMA_SAUVC26.xlsx
+++ b/Project Outputs for VMA_SAUVC26/VMA_SAUVC26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\Платы\VMA_SAUVC26_PCB\Project Outputs for VMA_SAUVC26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F916FD9E-8D63-436A-ABF8-F3107A4AFEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7B5C0C2-82C5-4B1A-B6DF-1E236C5E9E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA0F6215-325F-412C-8116-49E364F73B36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D8A3387-CCB3-48C7-8B41-CDE50F27B772}"/>
   </bookViews>
   <sheets>
     <sheet name="VMA_SAUVC26" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
   <si>
     <t>Line #</t>
   </si>
@@ -51,36 +51,111 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>AO3400A</t>
+  </si>
+  <si>
+    <t>N-канальный MOSFET</t>
+  </si>
+  <si>
+    <t>VT2_1, VT2_2, VT2_3, VT2_4, VT2_5, VT2_6, VT2_7, VT2_8, VT2_9, VT2_10</t>
+  </si>
+  <si>
+    <t>SOT23-3</t>
+  </si>
+  <si>
+    <t>CD4050B</t>
+  </si>
+  <si>
+    <t>Шесть буферных элементов</t>
+  </si>
+  <si>
+    <t>DD2-4</t>
+  </si>
+  <si>
+    <t>SOIC-16</t>
+  </si>
+  <si>
+    <t>DF40C-40DP</t>
+  </si>
+  <si>
+    <t>Разъем плата-плата 40 пинов, мама, шаг 0.4мм</t>
+  </si>
+  <si>
+    <t>XP2</t>
+  </si>
+  <si>
+    <t>PESD5V0S1UB</t>
+  </si>
+  <si>
+    <t>Защитный диод на 5 В, рассеиваемая мощность 330 Вт</t>
+  </si>
+  <si>
+    <t>VD1</t>
+  </si>
+  <si>
+    <t>5 В</t>
+  </si>
+  <si>
+    <t>SOD523</t>
+  </si>
+  <si>
+    <t>Resistor_680_1_0603</t>
+  </si>
+  <si>
+    <t>Резистор номиналом 680 Ом и точностью 1%</t>
+  </si>
+  <si>
+    <t>R13_1, R13_2, R13_3, R13_4, R13_5, R13_6, R13_7, R13_8, R13_9, R13_10</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>0603R</t>
+  </si>
+  <si>
+    <t>TSS-TD-19XA-XTR</t>
+  </si>
+  <si>
+    <t>Тактовая кнопка</t>
+  </si>
+  <si>
+    <t>S1, S2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Capacitor_1u_10_50V_X7R_0603C</t>
+  </si>
+  <si>
+    <t>Конденсатор</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>1 мк</t>
+  </si>
+  <si>
+    <t>0603C</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>Capacitor_0,1u_10_50V_X7R_0603C</t>
   </si>
   <si>
-    <t>Конденсатор</t>
-  </si>
-  <si>
     <t>C1, C3-5, C7, C8, C10-12, C14-16</t>
   </si>
   <si>
     <t>0,1 мк</t>
   </si>
   <si>
-    <t>0603C</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Capacitor_1u_10_50V_X7R_0603C</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>1 мк</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -171,21 +246,6 @@
     <t>LQFP100</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>CD4050B</t>
-  </si>
-  <si>
-    <t>Шесть буферных элементов</t>
-  </si>
-  <si>
-    <t>DD2-4</t>
-  </si>
-  <si>
-    <t>SOIC-16</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -201,6 +261,21 @@
     <t>0805D</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Resistor_1.0k_1_0603</t>
+  </si>
+  <si>
+    <t>Резистор номиналом 1,0 кОм и точностью 1%</t>
+  </si>
+  <si>
+    <t>R2, R3, R6, R9, R10</t>
+  </si>
+  <si>
+    <t>1,0 к</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -216,66 +291,6 @@
     <t>10 к</t>
   </si>
   <si>
-    <t>0603R</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Resistor_1.0k_1_0603</t>
-  </si>
-  <si>
-    <t>Резистор номиналом 1,0 кОм и точностью 1%</t>
-  </si>
-  <si>
-    <t>R2, R3, R6, R9, R10</t>
-  </si>
-  <si>
-    <t>1,0 к</t>
-  </si>
-  <si>
-    <t>Resistor_680_1_0603</t>
-  </si>
-  <si>
-    <t>Резистор номиналом 680 Ом и точностью 1%</t>
-  </si>
-  <si>
-    <t>R13_1, R13_2, R13_3, R13_4, R13_5, R13_6, R13_7, R13_8, R13_9, R13_10</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Tact_button</t>
-  </si>
-  <si>
-    <t>Тактовая кнопка</t>
-  </si>
-  <si>
-    <t>S1, S2</t>
-  </si>
-  <si>
-    <t>Button_SMD_10mm</t>
-  </si>
-  <si>
-    <t>PESD5V0S1UB</t>
-  </si>
-  <si>
-    <t>Защитный диод на 5 В, рассеиваемая мощность 330 Вт</t>
-  </si>
-  <si>
-    <t>VD1</t>
-  </si>
-  <si>
-    <t>5 В</t>
-  </si>
-  <si>
-    <t>SOD523</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -288,18 +303,6 @@
     <t>VT1</t>
   </si>
   <si>
-    <t>SOT23-3</t>
-  </si>
-  <si>
-    <t>AO3400A</t>
-  </si>
-  <si>
-    <t>N-канальный MOSFET</t>
-  </si>
-  <si>
-    <t>VT2_1, VT2_2, VT2_3, VT2_4, VT2_5, VT2_6, VT2_7, VT2_8, VT2_9, VT2_10</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -313,15 +316,6 @@
   </si>
   <si>
     <t>PLS6</t>
-  </si>
-  <si>
-    <t>DF40C-40DP</t>
-  </si>
-  <si>
-    <t>Разъем плата-плата 40 пинов, мама, шаг 0.4мм</t>
-  </si>
-  <si>
-    <t>XP2</t>
   </si>
   <si>
     <t>16</t>
@@ -716,7 +710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360E7AE8-07A7-46D6-9F84-D69D4940CA44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BE7022-4097-44A8-B485-861E1B5F32B1}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -767,400 +761,400 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E18" s="1">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1172,25 +1166,25 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
